--- a/docs/CEN_CRUISE_permissions.xlsx
+++ b/docs/CEN_CRUISE_permissions.xlsx
@@ -18,7 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm AM/PM"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -52,11 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -78,14 +83,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Role Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Owner Schema</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Object Type</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>Object Name</t>
@@ -94,23 +99,28 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Granted Privileges</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Grant Option?</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>CEN_UTILS_ROLE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>CEN_UTILS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PACKAGE</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CEN_UTIL_PKG</t>
+          <t>CEN_UTIL_ARRAY_PKG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -118,21 +128,22 @@
           <t>EXECUTE</t>
         </is>
       </c>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DSC</t>
+          <t>CEN_UTILS_ROLE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PACKAGE</t>
+          <t>CEN_UTILS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DSC_CRE_HIST_OBJS_PKG</t>
+          <t>CEN_UTIL_PKG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -140,26 +151,189 @@
           <t>EXECUTE</t>
         </is>
       </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>PICDM_INTEG_ROLE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PICDM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS_CUST_FLD_PKG_LOG_FILES_V</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PICDM_INTEG_ROLE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PICDM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ODS_INP_DATASET_SCORING</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CEN_UTILS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CEN_UTIL_ARRAY_PKG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EXECUTE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CEN_UTILS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CEN_UTIL_PKG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EXECUTE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>DSC</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PACKAGE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSC_CRE_HIST_OBJS_PKG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EXECUTE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>DSC_UTILITIES_PKG</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>EXECUTE</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EXECUTE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PICDM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DS_PIR_SCOR_V</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SELECT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PICDM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ODS_INP_DATASET_SCORING</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>REFERENCES</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -179,13 +353,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>select user_tab_privs.owner "Owner Schema", all_objects.object_type "Object Type", user_tab_privs.table_name "Object Name", LISTAGG(PRIVILEGE, ', ') WITHIN GROUP (ORDER BY PRIVILEGE) as "Granted Privileges" from user_tab_privs 
-inner join all_objects ON user_tab_privs.table_name = all_objects.object_name 
-AND all_objects.owner = user_tab_privs.owner
-AND all_objects.object_type &lt;&gt; 'PACKAGE BODY'
-where GRANTEE = sys_context( 'userenv', 'current_schema' )
-group by user_tab_privs.owner, user_tab_privs.table_name, all_objects.object_type
-order by user_tab_privs.owner, all_objects.object_type, table_name</t>
+          <t>(select ROLE "Role Name", OWNER "Owner Schema", TABLE_NAME "Object Name", LISTAGG(PRIVILEGE, ', ') WITHIN GROUP (ORDER BY PRIVILEGE) "Granted Privileges", NULL "Grant Option?" from role_tab_privs
+group by ROLE, OWNER, TABLE_NAME
+UNION 
+SELECT distinct NULL "Role Name", OWNER "Owner Schema", TABLE_NAME "Object Name", LISTAGG(PRIVILEGE, ', ') WITHIN GROUP (ORDER BY PRIVILEGE) "Granted Privileges", GRANTABLE "Grant Option?"
+from user_tab_privs 
+WHERE GRANTEE = sys_context( 'userenv', 'current_schema' )
+group by OWNER, TABLE_NAME, GRANTABLE)
+ORDER BY 1, 2, 3</t>
         </is>
       </c>
     </row>
